--- a/Datos/Database by set/Set with text box/Xlsx sets/New Phyrexia Tokens (TNPH).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/New Phyrexia Tokens (TNPH).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,105 +444,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Beast</t>
+          <t>('Beast', ['Token Creature — Beast', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Creature — Beast</t>
+          <t>('Goblin', ['Token Creature — Goblin', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>('Golem', ['Token Artifact Creature — Golem', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Goblin</t>
+          <t>('Myr', ['Token Artifact Creature — Myr', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Token Creature — Goblin</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Golem</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Token Artifact Creature — Golem</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Myr</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Token Artifact Creature — Myr</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Poison Counter</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>(A player with ten or more poison counters loses the game.)</t>
+          <t>('Poison Counter', ['Card', '(A player with ten or more poison counters loses the game.)'])</t>
         </is>
       </c>
     </row>
